--- a/Code/Results/Cases/Case_5_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_116/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.00920023551583</v>
+        <v>18.67841498217124</v>
       </c>
       <c r="C2">
-        <v>20.17720698457766</v>
+        <v>15.58052727591495</v>
       </c>
       <c r="D2">
-        <v>3.257611938355374</v>
+        <v>6.381431055820749</v>
       </c>
       <c r="E2">
-        <v>6.656409105920659</v>
+        <v>11.55663407063</v>
       </c>
       <c r="F2">
-        <v>36.94762849373055</v>
+        <v>44.04471527644677</v>
       </c>
       <c r="I2">
-        <v>21.13948662200727</v>
+        <v>28.41591799105303</v>
       </c>
       <c r="J2">
-        <v>5.626638019808893</v>
+        <v>9.812307771001098</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.70530288993798</v>
+        <v>19.86841817526783</v>
       </c>
       <c r="N2">
-        <v>12.7586025101273</v>
+        <v>19.74095577190075</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.37493498006558</v>
+        <v>18.2568108009636</v>
       </c>
       <c r="C3">
-        <v>18.80479593456957</v>
+        <v>15.17686764404504</v>
       </c>
       <c r="D3">
-        <v>3.217128145029835</v>
+        <v>6.380924773044557</v>
       </c>
       <c r="E3">
-        <v>6.6266912884581</v>
+        <v>11.57567309220733</v>
       </c>
       <c r="F3">
-        <v>35.58511720926079</v>
+        <v>43.91941992684593</v>
       </c>
       <c r="I3">
-        <v>20.73752629642036</v>
+        <v>28.43656366824174</v>
       </c>
       <c r="J3">
-        <v>5.658237052754503</v>
+        <v>9.835241316783501</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.87548913976724</v>
+        <v>19.75657196039054</v>
       </c>
       <c r="N3">
-        <v>13.0297695204029</v>
+        <v>19.8129151788179</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.32096823491301</v>
+        <v>17.99843605282638</v>
       </c>
       <c r="C4">
-        <v>17.93153630179403</v>
+        <v>14.92853205735597</v>
       </c>
       <c r="D4">
-        <v>3.192683038051289</v>
+        <v>6.380833982313437</v>
       </c>
       <c r="E4">
-        <v>6.611309119038363</v>
+        <v>11.58867990716307</v>
       </c>
       <c r="F4">
-        <v>34.76540665145674</v>
+        <v>43.85473432854575</v>
       </c>
       <c r="I4">
-        <v>20.51116698561378</v>
+        <v>28.45626921228903</v>
       </c>
       <c r="J4">
-        <v>5.679931596099938</v>
+        <v>9.850360458558093</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.3568123366306</v>
+        <v>19.69225295019283</v>
       </c>
       <c r="N4">
-        <v>13.19919188912021</v>
+        <v>19.85908292750351</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.8959851545961</v>
+        <v>17.89343537626812</v>
       </c>
       <c r="C5">
-        <v>17.56715354749628</v>
+        <v>14.82737912150115</v>
       </c>
       <c r="D5">
-        <v>3.182816664778521</v>
+        <v>6.380852546114607</v>
       </c>
       <c r="E5">
-        <v>6.605743600912882</v>
+        <v>11.59431169799893</v>
       </c>
       <c r="F5">
-        <v>34.43582373496626</v>
+        <v>43.83146349030731</v>
       </c>
       <c r="I5">
-        <v>20.42389793699698</v>
+        <v>28.46606021128445</v>
       </c>
       <c r="J5">
-        <v>5.689332679935075</v>
+        <v>9.856782919271541</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.14336616941335</v>
+        <v>19.66715794034369</v>
       </c>
       <c r="N5">
-        <v>13.2690064344115</v>
+        <v>19.87839697488428</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82804056711691</v>
+        <v>17.87602246339847</v>
       </c>
       <c r="C6">
-        <v>17.5061357561838</v>
+        <v>14.81059055635252</v>
       </c>
       <c r="D6">
-        <v>3.181183889843819</v>
+        <v>6.38085899099959</v>
       </c>
       <c r="E6">
-        <v>6.604861397240056</v>
+        <v>11.59526687719406</v>
       </c>
       <c r="F6">
-        <v>34.38137260865025</v>
+        <v>43.82778616641914</v>
       </c>
       <c r="I6">
-        <v>20.40970238631233</v>
+        <v>28.46779213812449</v>
       </c>
       <c r="J6">
-        <v>5.690927121777189</v>
+        <v>9.857865154341622</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.10780539664134</v>
+        <v>19.66305886946208</v>
       </c>
       <c r="N6">
-        <v>13.28064689999759</v>
+        <v>19.88163431458894</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.31505480159922</v>
+        <v>17.99701858504246</v>
       </c>
       <c r="C7">
-        <v>17.92665651572411</v>
+        <v>14.92716746110034</v>
       </c>
       <c r="D7">
-        <v>3.192549601379847</v>
+        <v>6.380834007388684</v>
       </c>
       <c r="E7">
-        <v>6.611231237531435</v>
+        <v>11.58875451722235</v>
       </c>
       <c r="F7">
-        <v>34.76094343786146</v>
+        <v>43.85440797262257</v>
       </c>
       <c r="I7">
-        <v>20.5099701300374</v>
+        <v>28.45639413718208</v>
       </c>
       <c r="J7">
-        <v>5.680056133781896</v>
+        <v>9.850446015758282</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.35394182169787</v>
+        <v>19.69190996784488</v>
       </c>
       <c r="N7">
-        <v>13.20013025080114</v>
+        <v>19.85934137605479</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.45609946356161</v>
+        <v>18.53304174297687</v>
       </c>
       <c r="C8">
-        <v>19.70737861948337</v>
+        <v>15.44154547841061</v>
       </c>
       <c r="D8">
-        <v>3.24356207979306</v>
+        <v>6.381210946943814</v>
       </c>
       <c r="E8">
-        <v>6.64555712742152</v>
+        <v>11.56292560674216</v>
       </c>
       <c r="F8">
-        <v>36.47444809677928</v>
+        <v>43.99897862159669</v>
       </c>
       <c r="I8">
-        <v>20.99654831991057</v>
+        <v>28.42157396885947</v>
       </c>
       <c r="J8">
-        <v>5.637047422894495</v>
+        <v>9.820000038012028</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.4212052275405</v>
+        <v>19.82896247084922</v>
       </c>
       <c r="N8">
-        <v>12.85151717702261</v>
+        <v>19.76535631902215</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.26140738263846</v>
+        <v>19.58105183694634</v>
       </c>
       <c r="C9">
-        <v>23.04369942780243</v>
+        <v>16.43933353184698</v>
       </c>
       <c r="D9">
-        <v>3.347333881938301</v>
+        <v>6.383687001542428</v>
       </c>
       <c r="E9">
-        <v>6.736425024248939</v>
+        <v>11.52271041742183</v>
       </c>
       <c r="F9">
-        <v>39.96155196938386</v>
+        <v>44.37906107582296</v>
       </c>
       <c r="I9">
-        <v>22.12028903272092</v>
+        <v>28.40932922777306</v>
       </c>
       <c r="J9">
-        <v>5.571697571520102</v>
+        <v>9.768516665222132</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.43407539941914</v>
+        <v>20.13130332436374</v>
       </c>
       <c r="N9">
-        <v>12.18931794476335</v>
+        <v>19.59673510657795</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.82981227855535</v>
+        <v>20.3401327206374</v>
       </c>
       <c r="C10">
-        <v>25.32535406959456</v>
+        <v>17.15691700166241</v>
       </c>
       <c r="D10">
-        <v>3.426662083035769</v>
+        <v>6.386553371959593</v>
       </c>
       <c r="E10">
-        <v>6.818766660108524</v>
+        <v>11.49950875631154</v>
       </c>
       <c r="F10">
-        <v>42.59623939979341</v>
+        <v>44.71616186142779</v>
       </c>
       <c r="I10">
-        <v>23.05961218619166</v>
+        <v>28.43480893340827</v>
       </c>
       <c r="J10">
-        <v>5.536498428329808</v>
+        <v>9.735684931718282</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.09478887920591</v>
+        <v>20.37249784705762</v>
       </c>
       <c r="N10">
-        <v>11.71335003462268</v>
+        <v>19.48232119029392</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.95214872061398</v>
+        <v>20.68134180755711</v>
       </c>
       <c r="C11">
-        <v>26.3271848074131</v>
+        <v>17.4783183209747</v>
       </c>
       <c r="D11">
-        <v>3.463654800831505</v>
+        <v>6.388082347605699</v>
       </c>
       <c r="E11">
-        <v>6.859905630352434</v>
+        <v>11.49032751390431</v>
       </c>
       <c r="F11">
-        <v>43.81124739920261</v>
+        <v>44.8817872967395</v>
       </c>
       <c r="I11">
-        <v>23.51407707315851</v>
+        <v>28.45393521285749</v>
       </c>
       <c r="J11">
-        <v>5.523583046587025</v>
+        <v>9.721829280286682</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.87883801119599</v>
+        <v>20.48603514792891</v>
       </c>
       <c r="N11">
-        <v>11.49856635876034</v>
+        <v>19.43230925413039</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.37084131668136</v>
+        <v>20.80982493380829</v>
       </c>
       <c r="C12">
-        <v>26.70166735777683</v>
+        <v>17.59917485505603</v>
       </c>
       <c r="D12">
-        <v>3.477817651121801</v>
+        <v>6.388693479177836</v>
       </c>
       <c r="E12">
-        <v>6.876040682349782</v>
+        <v>11.48704795270112</v>
       </c>
       <c r="F12">
-        <v>44.27388606215663</v>
+        <v>44.94624041318179</v>
       </c>
       <c r="I12">
-        <v>23.69030753262867</v>
+        <v>28.4622637386335</v>
       </c>
       <c r="J12">
-        <v>5.519167840801845</v>
+        <v>9.716737480519392</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.17134688095584</v>
+        <v>20.52954822682931</v>
       </c>
       <c r="N12">
-        <v>11.41744048875855</v>
+        <v>19.41366238944053</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.28094372865138</v>
+        <v>20.78218811574155</v>
       </c>
       <c r="C13">
-        <v>26.62122793244683</v>
+        <v>17.57318601664479</v>
       </c>
       <c r="D13">
-        <v>3.474760117712948</v>
+        <v>6.388560435046796</v>
       </c>
       <c r="E13">
-        <v>6.872540486572011</v>
+        <v>11.48774550043745</v>
       </c>
       <c r="F13">
-        <v>44.17413155307315</v>
+        <v>44.93228267346124</v>
       </c>
       <c r="I13">
-        <v>23.65216525962113</v>
+        <v>28.46042172434605</v>
       </c>
       <c r="J13">
-        <v>5.520097062202832</v>
+        <v>9.717827198932959</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.10854126617166</v>
+        <v>20.52015431093047</v>
       </c>
       <c r="N13">
-        <v>11.43490378034321</v>
+        <v>19.41766537558619</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.98671939326807</v>
+        <v>20.69192747305264</v>
       </c>
       <c r="C14">
-        <v>26.35808978622098</v>
+        <v>17.48827901391666</v>
       </c>
       <c r="D14">
-        <v>3.464816734271827</v>
+        <v>6.388131982856588</v>
       </c>
       <c r="E14">
-        <v>6.861221748029211</v>
+        <v>11.49005375252591</v>
       </c>
       <c r="F14">
-        <v>43.84925663376033</v>
+        <v>44.88705532346396</v>
       </c>
       <c r="I14">
-        <v>23.52849136735687</v>
+        <v>28.45459863496422</v>
       </c>
       <c r="J14">
-        <v>5.523210087500251</v>
+        <v>9.721407268969147</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.90298951468931</v>
+        <v>20.48960476863278</v>
       </c>
       <c r="N14">
-        <v>11.49188814508033</v>
+        <v>19.43076932829207</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.80568637988798</v>
+        <v>20.63654189212788</v>
       </c>
       <c r="C15">
-        <v>26.19628320010937</v>
+        <v>17.43615656340642</v>
       </c>
       <c r="D15">
-        <v>3.458747048359756</v>
+        <v>6.387873722804346</v>
       </c>
       <c r="E15">
-        <v>6.854362043890402</v>
+        <v>11.49149329242959</v>
       </c>
       <c r="F15">
-        <v>43.65059938575226</v>
+        <v>44.85957715446197</v>
       </c>
       <c r="I15">
-        <v>23.45328332626619</v>
+        <v>28.45117327976012</v>
       </c>
       <c r="J15">
-        <v>5.525179798509488</v>
+        <v>9.723620348901212</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.77651833322131</v>
+        <v>20.47095897425901</v>
       </c>
       <c r="N15">
-        <v>11.5268186111893</v>
+        <v>19.43883381533814</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.75556394690288</v>
+        <v>20.31773958030697</v>
       </c>
       <c r="C16">
-        <v>25.25918034690589</v>
+        <v>17.1358002768197</v>
       </c>
       <c r="D16">
-        <v>3.424264716727384</v>
+        <v>6.386457959528006</v>
       </c>
       <c r="E16">
-        <v>6.816154469456998</v>
+        <v>11.50013638094057</v>
       </c>
       <c r="F16">
-        <v>42.51717950509356</v>
+        <v>44.70558231144084</v>
       </c>
       <c r="I16">
-        <v>23.03047721478942</v>
+        <v>28.43371083143728</v>
       </c>
       <c r="J16">
-        <v>5.537407299596047</v>
+        <v>9.736612137844425</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.0429213470343</v>
+        <v>20.36515218776518</v>
       </c>
       <c r="N16">
-        <v>11.72741798638513</v>
+        <v>19.48563045036971</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.09976241733925</v>
+        <v>20.12101496726605</v>
       </c>
       <c r="C17">
-        <v>24.67525128099636</v>
+        <v>16.95015867783361</v>
       </c>
       <c r="D17">
-        <v>3.403358750735439</v>
+        <v>6.385646918140433</v>
       </c>
       <c r="E17">
-        <v>6.793676692066473</v>
+        <v>11.50579016170808</v>
       </c>
       <c r="F17">
-        <v>41.82617099302784</v>
+        <v>44.61423479003621</v>
       </c>
       <c r="I17">
-        <v>22.77820906931792</v>
+        <v>28.42493008877734</v>
       </c>
       <c r="J17">
-        <v>5.545722067087379</v>
+        <v>9.744858549875991</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.58480100921359</v>
+        <v>20.30119975860078</v>
       </c>
       <c r="N17">
-        <v>11.85089371165691</v>
+        <v>19.51485920285066</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.71820808075133</v>
+        <v>20.0074857441555</v>
       </c>
       <c r="C18">
-        <v>24.33597143207305</v>
+        <v>16.84291597377007</v>
       </c>
       <c r="D18">
-        <v>3.391417753918133</v>
+        <v>6.385201624387564</v>
       </c>
       <c r="E18">
-        <v>6.781092783358216</v>
+        <v>11.50917134845457</v>
       </c>
       <c r="F18">
-        <v>41.43025522462988</v>
+        <v>44.56285171452845</v>
       </c>
       <c r="I18">
-        <v>22.63565244485946</v>
+        <v>28.42058883696771</v>
       </c>
       <c r="J18">
-        <v>5.550793984122663</v>
+        <v>9.749703304319446</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.31825893970392</v>
+        <v>20.26477711321579</v>
       </c>
       <c r="N18">
-        <v>11.92207954802814</v>
+        <v>19.53186246851655</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.58826365216592</v>
+        <v>19.96898598941277</v>
       </c>
       <c r="C19">
-        <v>24.22050137951305</v>
+        <v>16.80652936634126</v>
       </c>
       <c r="D19">
-        <v>3.387388426098115</v>
+        <v>6.385054502706441</v>
       </c>
       <c r="E19">
-        <v>6.776890511617816</v>
+        <v>11.51033837343512</v>
       </c>
       <c r="F19">
-        <v>41.29646496381785</v>
+        <v>44.54565399765293</v>
       </c>
       <c r="I19">
-        <v>22.5878152465979</v>
+        <v>28.41924068517354</v>
       </c>
       <c r="J19">
-        <v>5.552560103332784</v>
+        <v>9.751361117873028</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.22748302121703</v>
+        <v>20.2525079448514</v>
       </c>
       <c r="N19">
-        <v>11.94621163856424</v>
+        <v>19.53765243486258</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.17002218689133</v>
+        <v>20.14199681631574</v>
       </c>
       <c r="C20">
-        <v>24.73776336850332</v>
+        <v>16.96996978915967</v>
       </c>
       <c r="D20">
-        <v>3.405575417529379</v>
+        <v>6.385731062794293</v>
       </c>
       <c r="E20">
-        <v>6.79603362557785</v>
+        <v>11.50517492909915</v>
       </c>
       <c r="F20">
-        <v>41.89957036511854</v>
+        <v>44.62383929629181</v>
       </c>
       <c r="I20">
-        <v>22.804798872345</v>
+        <v>28.42579139514864</v>
       </c>
       <c r="J20">
-        <v>5.544806777902513</v>
+        <v>9.743970187880263</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.63388207966665</v>
+        <v>20.30797044469935</v>
       </c>
       <c r="N20">
-        <v>11.83773265211281</v>
+        <v>19.51172792444154</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.07330884520027</v>
+        <v>20.71845993298342</v>
       </c>
       <c r="C21">
-        <v>26.43550986792521</v>
+        <v>17.51324232538442</v>
       </c>
       <c r="D21">
-        <v>3.467732936328279</v>
+        <v>6.388256959084396</v>
       </c>
       <c r="E21">
-        <v>6.864530996639844</v>
+        <v>11.48937041413472</v>
       </c>
       <c r="F21">
-        <v>43.94460936007869</v>
+        <v>44.90029288570891</v>
       </c>
       <c r="I21">
-        <v>23.56470318792998</v>
+        <v>28.45627953571508</v>
       </c>
       <c r="J21">
-        <v>5.522282550400917</v>
+        <v>9.720351509744358</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.96348229569912</v>
+        <v>20.49856406776009</v>
       </c>
       <c r="N21">
-        <v>11.4751451295397</v>
+        <v>19.42691247555996</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.28060076558454</v>
+        <v>21.0909276447912</v>
       </c>
       <c r="C22">
-        <v>27.51676529801853</v>
+        <v>17.86328917262339</v>
       </c>
       <c r="D22">
-        <v>3.509272007264574</v>
+        <v>6.3900950234117</v>
       </c>
       <c r="E22">
-        <v>6.912557447212031</v>
+        <v>11.48019039074772</v>
       </c>
       <c r="F22">
-        <v>45.29613847850999</v>
+        <v>45.09106381564566</v>
       </c>
       <c r="I22">
-        <v>24.08557625144039</v>
+        <v>28.48253462276025</v>
       </c>
       <c r="J22">
-        <v>5.510350436185942</v>
+        <v>9.705818901391467</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.80697281473115</v>
+        <v>20.62613848218912</v>
       </c>
       <c r="N22">
-        <v>11.23936866802602</v>
+        <v>19.37317965758852</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.63948346258841</v>
+        <v>20.89256905257503</v>
       </c>
       <c r="C23">
-        <v>26.94215708868524</v>
+        <v>17.67696078624677</v>
       </c>
       <c r="D23">
-        <v>3.487008728266674</v>
+        <v>6.389096953355035</v>
       </c>
       <c r="E23">
-        <v>6.886616721754855</v>
+        <v>11.48498490001611</v>
       </c>
       <c r="F23">
-        <v>44.57334428038047</v>
+        <v>44.98833338792314</v>
       </c>
       <c r="I23">
-        <v>23.80527434721439</v>
+        <v>28.46794217101646</v>
       </c>
       <c r="J23">
-        <v>5.516452677391929</v>
+        <v>9.713492623053822</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.35903322248455</v>
+        <v>20.5577842580167</v>
       </c>
       <c r="N23">
-        <v>11.36511066289421</v>
+        <v>19.40170278706542</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.13827186320713</v>
+        <v>20.13251225014275</v>
       </c>
       <c r="C24">
-        <v>24.7095127996348</v>
+        <v>16.96101477964791</v>
       </c>
       <c r="D24">
-        <v>3.404573020899601</v>
+        <v>6.385692955616977</v>
       </c>
       <c r="E24">
-        <v>6.794967002461948</v>
+        <v>11.5054526684728</v>
       </c>
       <c r="F24">
-        <v>41.86638230238001</v>
+        <v>44.6194935650699</v>
       </c>
       <c r="I24">
-        <v>22.79276992797691</v>
+        <v>28.42539979683891</v>
       </c>
       <c r="J24">
-        <v>5.545219673970565</v>
+        <v>9.744371493063101</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.61170239565649</v>
+        <v>20.30490834235048</v>
       </c>
       <c r="N24">
-        <v>11.84368214723958</v>
+        <v>19.51314295465331</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.27289611316121</v>
+        <v>19.29882785535307</v>
       </c>
       <c r="C25">
-        <v>22.1696844622305</v>
+        <v>16.17152155471333</v>
       </c>
       <c r="D25">
-        <v>3.318786633094833</v>
+        <v>6.382832423901003</v>
       </c>
       <c r="E25">
-        <v>6.709199979815815</v>
+        <v>11.53247424787545</v>
       </c>
       <c r="F25">
-        <v>39.00534745965755</v>
+        <v>44.26599034030254</v>
       </c>
       <c r="I25">
-        <v>21.7970896861516</v>
+        <v>28.40660658895726</v>
       </c>
       <c r="J25">
-        <v>5.58722382974643</v>
+        <v>9.781566112807704</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.89892631574017</v>
+        <v>20.04605660915322</v>
       </c>
       <c r="N25">
-        <v>12.3664235456055</v>
+        <v>19.64068186629105</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_116/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.67841498217124</v>
+        <v>23.00920023551582</v>
       </c>
       <c r="C2">
-        <v>15.58052727591495</v>
+        <v>20.1772069845776</v>
       </c>
       <c r="D2">
-        <v>6.381431055820749</v>
+        <v>3.25761193835537</v>
       </c>
       <c r="E2">
-        <v>11.55663407063</v>
+        <v>6.656409105920663</v>
       </c>
       <c r="F2">
-        <v>44.04471527644677</v>
+        <v>36.94762849373067</v>
       </c>
       <c r="I2">
-        <v>28.41591799105303</v>
+        <v>21.13948662200742</v>
       </c>
       <c r="J2">
-        <v>9.812307771001098</v>
+        <v>5.626638019808955</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.86841817526783</v>
+        <v>16.70530288993799</v>
       </c>
       <c r="N2">
-        <v>19.74095577190075</v>
+        <v>12.7586025101274</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.2568108009636</v>
+        <v>21.37493498006558</v>
       </c>
       <c r="C3">
-        <v>15.17686764404504</v>
+        <v>18.80479593456957</v>
       </c>
       <c r="D3">
-        <v>6.380924773044557</v>
+        <v>3.217128145029719</v>
       </c>
       <c r="E3">
-        <v>11.57567309220733</v>
+        <v>6.626691288458118</v>
       </c>
       <c r="F3">
-        <v>43.91941992684593</v>
+        <v>35.58511720926082</v>
       </c>
       <c r="I3">
-        <v>28.43656366824174</v>
+        <v>20.73752629642038</v>
       </c>
       <c r="J3">
-        <v>9.835241316783501</v>
+        <v>5.65823705275448</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.75657196039054</v>
+        <v>15.87548913976727</v>
       </c>
       <c r="N3">
-        <v>19.8129151788179</v>
+        <v>13.02976952040291</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.99843605282638</v>
+        <v>20.32096823491302</v>
       </c>
       <c r="C4">
-        <v>14.92853205735597</v>
+        <v>17.93153630179402</v>
       </c>
       <c r="D4">
-        <v>6.380833982313437</v>
+        <v>3.192683038051295</v>
       </c>
       <c r="E4">
-        <v>11.58867990716307</v>
+        <v>6.611309119038247</v>
       </c>
       <c r="F4">
-        <v>43.85473432854575</v>
+        <v>34.76540665145656</v>
       </c>
       <c r="I4">
-        <v>28.45626921228903</v>
+        <v>20.51116698561365</v>
       </c>
       <c r="J4">
-        <v>9.850360458558093</v>
+        <v>5.679931596099873</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.69225295019283</v>
+        <v>15.35681233663057</v>
       </c>
       <c r="N4">
-        <v>19.85908292750351</v>
+        <v>13.19919188912011</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.89343537626812</v>
+        <v>19.89598515459615</v>
       </c>
       <c r="C5">
-        <v>14.82737912150115</v>
+        <v>17.56715354749629</v>
       </c>
       <c r="D5">
-        <v>6.380852546114607</v>
+        <v>3.182816664778453</v>
       </c>
       <c r="E5">
-        <v>11.59431169799893</v>
+        <v>6.60574360091299</v>
       </c>
       <c r="F5">
-        <v>43.83146349030731</v>
+        <v>34.43582373496618</v>
       </c>
       <c r="I5">
-        <v>28.46606021128445</v>
+        <v>20.42389793699696</v>
       </c>
       <c r="J5">
-        <v>9.856782919271541</v>
+        <v>5.689332679935132</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.66715794034369</v>
+        <v>15.14336616941334</v>
       </c>
       <c r="N5">
-        <v>19.87839697488428</v>
+        <v>13.2690064344115</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87602246339847</v>
+        <v>19.82804056711694</v>
       </c>
       <c r="C6">
-        <v>14.81059055635252</v>
+        <v>17.50613575618381</v>
       </c>
       <c r="D6">
-        <v>6.38085899099959</v>
+        <v>3.181183889844005</v>
       </c>
       <c r="E6">
-        <v>11.59526687719406</v>
+        <v>6.604861397240108</v>
       </c>
       <c r="F6">
-        <v>43.82778616641914</v>
+        <v>34.38137260865041</v>
       </c>
       <c r="I6">
-        <v>28.46779213812449</v>
+        <v>20.40970238631236</v>
       </c>
       <c r="J6">
-        <v>9.857865154341622</v>
+        <v>5.690927121777158</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.66305886946208</v>
+        <v>15.10780539664137</v>
       </c>
       <c r="N6">
-        <v>19.88163431458894</v>
+        <v>13.28064689999762</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.99701858504246</v>
+        <v>20.31505480159921</v>
       </c>
       <c r="C7">
-        <v>14.92716746110034</v>
+        <v>17.92665651572414</v>
       </c>
       <c r="D7">
-        <v>6.380834007388684</v>
+        <v>3.192549601380016</v>
       </c>
       <c r="E7">
-        <v>11.58875451722235</v>
+        <v>6.611231237531419</v>
       </c>
       <c r="F7">
-        <v>43.85440797262257</v>
+        <v>34.76094343786171</v>
       </c>
       <c r="I7">
-        <v>28.45639413718208</v>
+        <v>20.50997013003759</v>
       </c>
       <c r="J7">
-        <v>9.850446015758282</v>
+        <v>5.680056133781837</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.69190996784488</v>
+        <v>15.35394182169789</v>
       </c>
       <c r="N7">
-        <v>19.85934137605479</v>
+        <v>13.20013025080124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.53304174297687</v>
+        <v>22.45609946356159</v>
       </c>
       <c r="C8">
-        <v>15.44154547841061</v>
+        <v>19.70737861948335</v>
       </c>
       <c r="D8">
-        <v>6.381210946943814</v>
+        <v>3.243562079793116</v>
       </c>
       <c r="E8">
-        <v>11.56292560674216</v>
+        <v>6.645557127421399</v>
       </c>
       <c r="F8">
-        <v>43.99897862159669</v>
+        <v>36.4744480967793</v>
       </c>
       <c r="I8">
-        <v>28.42157396885947</v>
+        <v>20.99654831991065</v>
       </c>
       <c r="J8">
-        <v>9.820000038012028</v>
+        <v>5.637047422894434</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.82896247084922</v>
+        <v>16.42120522754048</v>
       </c>
       <c r="N8">
-        <v>19.76535631902215</v>
+        <v>12.85151717702261</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.58105183694634</v>
+        <v>26.2614073826386</v>
       </c>
       <c r="C9">
-        <v>16.43933353184698</v>
+        <v>23.04369942780254</v>
       </c>
       <c r="D9">
-        <v>6.383687001542428</v>
+        <v>3.347333881938355</v>
       </c>
       <c r="E9">
-        <v>11.52271041742183</v>
+        <v>6.736425024248986</v>
       </c>
       <c r="F9">
-        <v>44.37906107582296</v>
+        <v>39.9615519693838</v>
       </c>
       <c r="I9">
-        <v>28.40932922777306</v>
+        <v>22.12028903272083</v>
       </c>
       <c r="J9">
-        <v>9.768516665222132</v>
+        <v>5.571697571520049</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.13130332436374</v>
+        <v>18.43407539941913</v>
       </c>
       <c r="N9">
-        <v>19.59673510657795</v>
+        <v>12.18931794476323</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.3401327206374</v>
+        <v>28.82981227855538</v>
       </c>
       <c r="C10">
-        <v>17.15691700166241</v>
+        <v>25.32535406959461</v>
       </c>
       <c r="D10">
-        <v>6.386553371959593</v>
+        <v>3.426662083035523</v>
       </c>
       <c r="E10">
-        <v>11.49950875631154</v>
+        <v>6.818766660108465</v>
       </c>
       <c r="F10">
-        <v>44.71616186142779</v>
+        <v>42.5962393997934</v>
       </c>
       <c r="I10">
-        <v>28.43480893340827</v>
+        <v>23.05961218619167</v>
       </c>
       <c r="J10">
-        <v>9.735684931718282</v>
+        <v>5.536498428329807</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.37249784705762</v>
+        <v>20.09478887920595</v>
       </c>
       <c r="N10">
-        <v>19.48232119029392</v>
+        <v>11.71335003462269</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.68134180755711</v>
+        <v>29.95214872061397</v>
       </c>
       <c r="C11">
-        <v>17.4783183209747</v>
+        <v>26.32718480741299</v>
       </c>
       <c r="D11">
-        <v>6.388082347605699</v>
+        <v>3.463654800831328</v>
       </c>
       <c r="E11">
-        <v>11.49032751390431</v>
+        <v>6.859905630352422</v>
       </c>
       <c r="F11">
-        <v>44.8817872967395</v>
+        <v>43.81124739920261</v>
       </c>
       <c r="I11">
-        <v>28.45393521285749</v>
+        <v>23.51407707315851</v>
       </c>
       <c r="J11">
-        <v>9.721829280286682</v>
+        <v>5.523583046587047</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.48603514792891</v>
+        <v>20.87883801119594</v>
       </c>
       <c r="N11">
-        <v>19.43230925413039</v>
+        <v>11.49856635876037</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.80982493380829</v>
+        <v>30.37084131668137</v>
       </c>
       <c r="C12">
-        <v>17.59917485505603</v>
+        <v>26.70166735777687</v>
       </c>
       <c r="D12">
-        <v>6.388693479177836</v>
+        <v>3.477817651121565</v>
       </c>
       <c r="E12">
-        <v>11.48704795270112</v>
+        <v>6.87604068234972</v>
       </c>
       <c r="F12">
-        <v>44.94624041318179</v>
+        <v>44.27388606215657</v>
       </c>
       <c r="I12">
-        <v>28.4622637386335</v>
+        <v>23.69030753262869</v>
       </c>
       <c r="J12">
-        <v>9.716737480519392</v>
+        <v>5.519167840801893</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.52954822682931</v>
+        <v>21.17134688095591</v>
       </c>
       <c r="N12">
-        <v>19.41366238944053</v>
+        <v>11.41744048875855</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.78218811574155</v>
+        <v>30.28094372865146</v>
       </c>
       <c r="C13">
-        <v>17.57318601664479</v>
+        <v>26.62122793244693</v>
       </c>
       <c r="D13">
-        <v>6.388560435046796</v>
+        <v>3.474760117712941</v>
       </c>
       <c r="E13">
-        <v>11.48774550043745</v>
+        <v>6.872540486571946</v>
       </c>
       <c r="F13">
-        <v>44.93228267346124</v>
+        <v>44.1741315530732</v>
       </c>
       <c r="I13">
-        <v>28.46042172434605</v>
+        <v>23.65216525962117</v>
       </c>
       <c r="J13">
-        <v>9.717827198932959</v>
+        <v>5.520097062202771</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.52015431093047</v>
+        <v>21.10854126617171</v>
       </c>
       <c r="N13">
-        <v>19.41766537558619</v>
+        <v>11.43490378034322</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.69192747305264</v>
+        <v>29.98671939326808</v>
       </c>
       <c r="C14">
-        <v>17.48827901391666</v>
+        <v>26.35808978622097</v>
       </c>
       <c r="D14">
-        <v>6.388131982856588</v>
+        <v>3.464816734271827</v>
       </c>
       <c r="E14">
-        <v>11.49005375252591</v>
+        <v>6.861221748029251</v>
       </c>
       <c r="F14">
-        <v>44.88705532346396</v>
+        <v>43.84925663376034</v>
       </c>
       <c r="I14">
-        <v>28.45459863496422</v>
+        <v>23.52849136735688</v>
       </c>
       <c r="J14">
-        <v>9.721407268969147</v>
+        <v>5.523210087500272</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.48960476863278</v>
+        <v>20.90298951468931</v>
       </c>
       <c r="N14">
-        <v>19.43076932829207</v>
+        <v>11.49188814508037</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.63654189212788</v>
+        <v>29.80568637988796</v>
       </c>
       <c r="C15">
-        <v>17.43615656340642</v>
+        <v>26.19628320010929</v>
       </c>
       <c r="D15">
-        <v>6.387873722804346</v>
+        <v>3.458747048359746</v>
       </c>
       <c r="E15">
-        <v>11.49149329242959</v>
+        <v>6.854362043890366</v>
       </c>
       <c r="F15">
-        <v>44.85957715446197</v>
+        <v>43.65059938575227</v>
       </c>
       <c r="I15">
-        <v>28.45117327976012</v>
+        <v>23.45328332626621</v>
       </c>
       <c r="J15">
-        <v>9.723620348901212</v>
+        <v>5.52517979850945</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.47095897425901</v>
+        <v>20.77651833322132</v>
       </c>
       <c r="N15">
-        <v>19.43883381533814</v>
+        <v>11.52681861118931</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.31773958030697</v>
+        <v>28.75556394690278</v>
       </c>
       <c r="C16">
-        <v>17.1358002768197</v>
+        <v>25.25918034690575</v>
       </c>
       <c r="D16">
-        <v>6.386457959528006</v>
+        <v>3.424264716727206</v>
       </c>
       <c r="E16">
-        <v>11.50013638094057</v>
+        <v>6.81615446945688</v>
       </c>
       <c r="F16">
-        <v>44.70558231144084</v>
+        <v>42.51717950509357</v>
       </c>
       <c r="I16">
-        <v>28.43371083143728</v>
+        <v>23.0304772147895</v>
       </c>
       <c r="J16">
-        <v>9.736612137844425</v>
+        <v>5.537407299596041</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.36515218776518</v>
+        <v>20.04292134703423</v>
       </c>
       <c r="N16">
-        <v>19.48563045036971</v>
+        <v>11.72741798638517</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.12101496726605</v>
+        <v>28.09976241733926</v>
       </c>
       <c r="C17">
-        <v>16.95015867783361</v>
+        <v>24.6752512809964</v>
       </c>
       <c r="D17">
-        <v>6.385646918140433</v>
+        <v>3.403358750735367</v>
       </c>
       <c r="E17">
-        <v>11.50579016170808</v>
+        <v>6.79367669206642</v>
       </c>
       <c r="F17">
-        <v>44.61423479003621</v>
+        <v>41.82617099302792</v>
       </c>
       <c r="I17">
-        <v>28.42493008877734</v>
+        <v>22.778209069318</v>
       </c>
       <c r="J17">
-        <v>9.744858549875991</v>
+        <v>5.545722067087384</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.30119975860078</v>
+        <v>19.58480100921361</v>
       </c>
       <c r="N17">
-        <v>19.51485920285066</v>
+        <v>11.85089371165696</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.0074857441555</v>
+        <v>27.7182080807514</v>
       </c>
       <c r="C18">
-        <v>16.84291597377007</v>
+        <v>24.33597143207307</v>
       </c>
       <c r="D18">
-        <v>6.385201624387564</v>
+        <v>3.391417753918263</v>
       </c>
       <c r="E18">
-        <v>11.50917134845457</v>
+        <v>6.781092783358216</v>
       </c>
       <c r="F18">
-        <v>44.56285171452845</v>
+        <v>41.43025522462989</v>
       </c>
       <c r="I18">
-        <v>28.42058883696771</v>
+        <v>22.63565244485941</v>
       </c>
       <c r="J18">
-        <v>9.749703304319446</v>
+        <v>5.550793984122609</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.26477711321579</v>
+        <v>19.31825893970397</v>
       </c>
       <c r="N18">
-        <v>19.53186246851655</v>
+        <v>11.92207954802802</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.96898598941277</v>
+        <v>27.58826365216586</v>
       </c>
       <c r="C19">
-        <v>16.80652936634126</v>
+        <v>24.22050137951291</v>
       </c>
       <c r="D19">
-        <v>6.385054502706441</v>
+        <v>3.387388426098035</v>
       </c>
       <c r="E19">
-        <v>11.51033837343512</v>
+        <v>6.776890511617642</v>
       </c>
       <c r="F19">
-        <v>44.54565399765293</v>
+        <v>41.29646496381789</v>
       </c>
       <c r="I19">
-        <v>28.41924068517354</v>
+        <v>22.58781524659796</v>
       </c>
       <c r="J19">
-        <v>9.751361117873028</v>
+        <v>5.552560103332751</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.2525079448514</v>
+        <v>19.22748302121695</v>
       </c>
       <c r="N19">
-        <v>19.53765243486258</v>
+        <v>11.94621163856426</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.14199681631574</v>
+        <v>28.17002218689136</v>
       </c>
       <c r="C20">
-        <v>16.96996978915967</v>
+        <v>24.73776336850329</v>
       </c>
       <c r="D20">
-        <v>6.385731062794293</v>
+        <v>3.405575417529437</v>
       </c>
       <c r="E20">
-        <v>11.50517492909915</v>
+        <v>6.796033625577909</v>
       </c>
       <c r="F20">
-        <v>44.62383929629181</v>
+        <v>41.89957036511853</v>
       </c>
       <c r="I20">
-        <v>28.42579139514864</v>
+        <v>22.804798872345</v>
       </c>
       <c r="J20">
-        <v>9.743970187880263</v>
+        <v>5.544806777902575</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.30797044469935</v>
+        <v>19.63388207966664</v>
       </c>
       <c r="N20">
-        <v>19.51172792444154</v>
+        <v>11.83773265211288</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.71845993298342</v>
+        <v>30.07330884520027</v>
       </c>
       <c r="C21">
-        <v>17.51324232538442</v>
+        <v>26.43550986792513</v>
       </c>
       <c r="D21">
-        <v>6.388256959084396</v>
+        <v>3.467732936328273</v>
       </c>
       <c r="E21">
-        <v>11.48937041413472</v>
+        <v>6.864530996639879</v>
       </c>
       <c r="F21">
-        <v>44.90029288570891</v>
+        <v>43.94460936007867</v>
       </c>
       <c r="I21">
-        <v>28.45627953571508</v>
+        <v>23.56470318793001</v>
       </c>
       <c r="J21">
-        <v>9.720351509744358</v>
+        <v>5.52228255040094</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.49856406776009</v>
+        <v>20.96348229569906</v>
       </c>
       <c r="N21">
-        <v>19.42691247555996</v>
+        <v>11.4751451295398</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.0909276447912</v>
+        <v>31.28060076558451</v>
       </c>
       <c r="C22">
-        <v>17.86328917262339</v>
+        <v>27.51676529801858</v>
       </c>
       <c r="D22">
-        <v>6.3900950234117</v>
+        <v>3.509272007264444</v>
       </c>
       <c r="E22">
-        <v>11.48019039074772</v>
+        <v>6.912557447211934</v>
       </c>
       <c r="F22">
-        <v>45.09106381564566</v>
+        <v>45.29613847851003</v>
       </c>
       <c r="I22">
-        <v>28.48253462276025</v>
+        <v>24.08557625144043</v>
       </c>
       <c r="J22">
-        <v>9.705818901391467</v>
+        <v>5.510350436185922</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.62613848218912</v>
+        <v>21.80697281473116</v>
       </c>
       <c r="N22">
-        <v>19.37317965758852</v>
+        <v>11.23936866802603</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.89256905257503</v>
+        <v>30.63948346258848</v>
       </c>
       <c r="C23">
-        <v>17.67696078624677</v>
+        <v>26.94215708868527</v>
       </c>
       <c r="D23">
-        <v>6.389096953355035</v>
+        <v>3.48700872826666</v>
       </c>
       <c r="E23">
-        <v>11.48498490001611</v>
+        <v>6.886616721754891</v>
       </c>
       <c r="F23">
-        <v>44.98833338792314</v>
+        <v>44.57334428038056</v>
       </c>
       <c r="I23">
-        <v>28.46794217101646</v>
+        <v>23.80527434721443</v>
       </c>
       <c r="J23">
-        <v>9.713492623053822</v>
+        <v>5.516452677391976</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.5577842580167</v>
+        <v>21.35903322248458</v>
       </c>
       <c r="N23">
-        <v>19.40170278706542</v>
+        <v>11.3651106628942</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.13251225014275</v>
+        <v>28.13827186320711</v>
       </c>
       <c r="C24">
-        <v>16.96101477964791</v>
+        <v>24.70951279963479</v>
       </c>
       <c r="D24">
-        <v>6.385692955616977</v>
+        <v>3.40457302089954</v>
       </c>
       <c r="E24">
-        <v>11.5054526684728</v>
+        <v>6.794967002461862</v>
       </c>
       <c r="F24">
-        <v>44.6194935650699</v>
+        <v>41.86638230238</v>
       </c>
       <c r="I24">
-        <v>28.42539979683891</v>
+        <v>22.79276992797688</v>
       </c>
       <c r="J24">
-        <v>9.744371493063101</v>
+        <v>5.545219673970541</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.30490834235048</v>
+        <v>19.61170239565648</v>
       </c>
       <c r="N24">
-        <v>19.51314295465331</v>
+        <v>11.84368214723952</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.29882785535307</v>
+        <v>25.27289611316118</v>
       </c>
       <c r="C25">
-        <v>16.17152155471333</v>
+        <v>22.16968446223053</v>
       </c>
       <c r="D25">
-        <v>6.382832423901003</v>
+        <v>3.318786633094829</v>
       </c>
       <c r="E25">
-        <v>11.53247424787545</v>
+        <v>6.709199979815657</v>
       </c>
       <c r="F25">
-        <v>44.26599034030254</v>
+        <v>39.00534745965753</v>
       </c>
       <c r="I25">
-        <v>28.40660658895726</v>
+        <v>21.79708968615161</v>
       </c>
       <c r="J25">
-        <v>9.781566112807704</v>
+        <v>5.587223829746319</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.04605660915322</v>
+        <v>17.89892631574015</v>
       </c>
       <c r="N25">
-        <v>19.64068186629105</v>
+        <v>12.36642354560546</v>
       </c>
       <c r="O25">
         <v>0</v>
